--- a/Stilling Basin Design/Delamual Workout Example/Data_Summary_Polder_43_2c.xlsx
+++ b/Stilling Basin Design/Delamual Workout Example/Data_Summary_Polder_43_2c.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Designs_All\Stilling Basin Design\Delamual Workout Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA6DAE-653B-46EE-B2D7-F7F48EF54A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278235E6-54B6-4AED-B761-A2DE9F3C3284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Channel_Data" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="structure_name" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Parameter</t>
   </si>
@@ -73,6 +73,51 @@
   </si>
   <si>
     <t>Chadnimukha_3V_DFR</t>
+  </si>
+  <si>
+    <t>d.d.l</t>
+  </si>
+  <si>
+    <t>m.a.st.l</t>
+  </si>
+  <si>
+    <t>bottom level of drainage channel near outfall</t>
+  </si>
+  <si>
+    <t>a-b</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>c-d</t>
+  </si>
+  <si>
+    <t>d-e</t>
+  </si>
+  <si>
+    <t>e-a*</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Channel_designation</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -393,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
@@ -461,6 +506,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -468,28 +546,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB0010D-5B3B-454B-AD2C-CEFFD7FBE4EE}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>A1+A2</f>
-        <v>0.83</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16.61</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>900</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3877F959-6A5F-4DFA-A9A0-3E9BA524A6EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
